--- a/spread.xlsx
+++ b/spread.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gitdemo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jobin Jose\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA09708-9855-410D-AF54-0131CC30D371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37495D7B-FA69-437C-B6A1-30694053AD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -360,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -388,6 +388,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>12345</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/spread.xlsx
+++ b/spread.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jobin Jose\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37495D7B-FA69-437C-B6A1-30694053AD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4094CBBB-CE54-4133-9C47-D2027FE444F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Hi</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Jose</t>
+  </si>
+  <si>
+    <t>testing branching</t>
   </si>
 </sst>
 </file>
@@ -360,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -393,6 +396,11 @@
         <v>12345</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/spread.xlsx
+++ b/spread.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jobin Jose\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4094CBBB-CE54-4133-9C47-D2027FE444F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A2F9EA-4A94-4740-9E1D-8681437016E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Hi</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>testing branching</t>
+  </si>
+  <si>
+    <t>branch changes</t>
   </si>
 </sst>
 </file>
@@ -363,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -401,6 +404,11 @@
         <v>6</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/spread.xlsx
+++ b/spread.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jobin Jose\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\remotegitdemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A2F9EA-4A94-4740-9E1D-8681437016E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BF0382-3EDF-47DC-8ACA-4D79111DBC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Hi</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>branch changes</t>
+  </si>
+  <si>
+    <t>nigger</t>
   </si>
 </sst>
 </file>
@@ -366,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -409,6 +412,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
